--- a/stock.xlsx
+++ b/stock.xlsx
@@ -154,7 +154,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>6352</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -162,7 +162,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>6000</v>
+        <v>3453</v>
       </c>
     </row>
   </sheetData>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -149,12 +149,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>7651</v>
+        <v>6347</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -162,7 +162,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>3453</v>
+        <v>7931</v>
       </c>
     </row>
   </sheetData>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -154,7 +154,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>6347</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -162,7 +162,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>7931</v>
+        <v>5263</v>
       </c>
     </row>
   </sheetData>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -136,7 +136,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -162,7 +162,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>5263</v>
+        <v>7632</v>
       </c>
     </row>
   </sheetData>
